--- a/tools/app/Lipids_SLD_calculator.xlsx
+++ b/tools/app/Lipids_SLD_calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10118"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anz/Documents/Andy/programming/refnx/misc/app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Documents/Andy/programming/refnx/tools/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED63D409-0180-C24C-B5CD-C0991803F7F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD32F6B-2C77-5842-B316-2CD752371D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="680" windowWidth="35620" windowHeight="11300" firstSheet="24" activeTab="40" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2780" yWindow="680" windowWidth="38060" windowHeight="23960" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="h-DMPC" sheetId="1" r:id="rId1"/>
@@ -19,48 +19,62 @@
     <sheet name="d54-DMPG" sheetId="4" r:id="rId4"/>
     <sheet name="h-POPC" sheetId="12" r:id="rId5"/>
     <sheet name="d31-POPC" sheetId="5" r:id="rId6"/>
-    <sheet name="d9-POPC" sheetId="17" r:id="rId7"/>
-    <sheet name="h-POPG" sheetId="13" r:id="rId8"/>
-    <sheet name="d31-POPG" sheetId="6" r:id="rId9"/>
-    <sheet name="h-POPS" sheetId="14" r:id="rId10"/>
-    <sheet name="d31-POPS" sheetId="7" r:id="rId11"/>
-    <sheet name="h-POPE" sheetId="15" r:id="rId12"/>
-    <sheet name="d31-POPE" sheetId="8" r:id="rId13"/>
-    <sheet name="d4-POPE" sheetId="18" r:id="rId14"/>
-    <sheet name="h-DPPC" sheetId="10" r:id="rId15"/>
-    <sheet name="d62-DPPC" sheetId="11" r:id="rId16"/>
-    <sheet name="DPPTE" sheetId="9" r:id="rId17"/>
-    <sheet name="OTPPC" sheetId="16" r:id="rId18"/>
-    <sheet name="d6-POPI" sheetId="21" r:id="rId19"/>
-    <sheet name="POPI" sheetId="19" r:id="rId20"/>
-    <sheet name="POPIP2" sheetId="40" r:id="rId21"/>
-    <sheet name="TMCL" sheetId="20" r:id="rId22"/>
-    <sheet name="TOCL" sheetId="25" r:id="rId23"/>
-    <sheet name="Lysyl-DOPG" sheetId="26" r:id="rId24"/>
-    <sheet name="d-DT" sheetId="24" r:id="rId25"/>
-    <sheet name="MPLA" sheetId="27" r:id="rId26"/>
-    <sheet name="PHAD" sheetId="28" r:id="rId27"/>
-    <sheet name="HAPAK" sheetId="29" r:id="rId28"/>
-    <sheet name="HAPAK1P" sheetId="37" r:id="rId29"/>
-    <sheet name="PAPAK" sheetId="30" r:id="rId30"/>
-    <sheet name="PAPAK1P" sheetId="38" r:id="rId31"/>
-    <sheet name="HAPAKB62GN" sheetId="31" r:id="rId32"/>
-    <sheet name="HAPAKB61GN" sheetId="32" r:id="rId33"/>
-    <sheet name="PAPAKB62GN" sheetId="33" r:id="rId34"/>
-    <sheet name="PAPAKB61GN" sheetId="34" r:id="rId35"/>
-    <sheet name="PAPAKB61GN1P" sheetId="35" r:id="rId36"/>
-    <sheet name="HAPAK61GN1P" sheetId="36" r:id="rId37"/>
-    <sheet name="d37OTS" sheetId="39" r:id="rId38"/>
-    <sheet name="h-DOPC" sheetId="41" r:id="rId39"/>
-    <sheet name="DOTAP" sheetId="43" r:id="rId40"/>
-    <sheet name="18_1 Diether PC" sheetId="42" r:id="rId41"/>
+    <sheet name="d77-POPC" sheetId="44" r:id="rId7"/>
+    <sheet name="d9-POPC" sheetId="17" r:id="rId8"/>
+    <sheet name="h-POPG" sheetId="13" r:id="rId9"/>
+    <sheet name="d31-POPG" sheetId="6" r:id="rId10"/>
+    <sheet name="h-POPS" sheetId="14" r:id="rId11"/>
+    <sheet name="d31-POPS" sheetId="7" r:id="rId12"/>
+    <sheet name="h-POPE" sheetId="15" r:id="rId13"/>
+    <sheet name="d31-POPE" sheetId="8" r:id="rId14"/>
+    <sheet name="d4-POPE" sheetId="18" r:id="rId15"/>
+    <sheet name="h-DPPC" sheetId="10" r:id="rId16"/>
+    <sheet name="d62-DPPC" sheetId="11" r:id="rId17"/>
+    <sheet name="DPPTE" sheetId="9" r:id="rId18"/>
+    <sheet name="OTPPC" sheetId="16" r:id="rId19"/>
+    <sheet name="d6-POPI" sheetId="21" r:id="rId20"/>
+    <sheet name="POPI" sheetId="19" r:id="rId21"/>
+    <sheet name="POPIP2" sheetId="40" r:id="rId22"/>
+    <sheet name="TMCL" sheetId="20" r:id="rId23"/>
+    <sheet name="TOCL" sheetId="25" r:id="rId24"/>
+    <sheet name="Lysyl-DOPG" sheetId="26" r:id="rId25"/>
+    <sheet name="d-DT" sheetId="24" r:id="rId26"/>
+    <sheet name="MPLA" sheetId="27" r:id="rId27"/>
+    <sheet name="PHAD" sheetId="28" r:id="rId28"/>
+    <sheet name="HAPAK" sheetId="29" r:id="rId29"/>
+    <sheet name="HAPAK1P" sheetId="37" r:id="rId30"/>
+    <sheet name="PAPAK" sheetId="30" r:id="rId31"/>
+    <sheet name="PAPAK1P" sheetId="38" r:id="rId32"/>
+    <sheet name="HAPAKB62GN" sheetId="31" r:id="rId33"/>
+    <sheet name="HAPAKB61GN" sheetId="32" r:id="rId34"/>
+    <sheet name="PAPAKB62GN" sheetId="33" r:id="rId35"/>
+    <sheet name="PAPAKB61GN" sheetId="34" r:id="rId36"/>
+    <sheet name="PAPAKB61GN1P" sheetId="35" r:id="rId37"/>
+    <sheet name="HAPAK61GN1P" sheetId="36" r:id="rId38"/>
+    <sheet name="d37OTS" sheetId="39" r:id="rId39"/>
+    <sheet name="h-DOPC" sheetId="41" r:id="rId40"/>
+    <sheet name="DOTAP" sheetId="43" r:id="rId41"/>
+    <sheet name="18_1 Diether PC" sheetId="42" r:id="rId42"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="80">
   <si>
     <t>Heads</t>
   </si>
@@ -1065,12 +1079,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1142,6 +1155,72 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="http://avantilipids.com/images/structures/860384s.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1009650" y="1590675"/>
+          <a:ext cx="5715000" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -1203,7 +1282,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1269,7 +1348,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1335,7 +1414,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1401,7 +1480,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -1460,7 +1539,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1526,7 +1605,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1592,7 +1671,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1658,7 +1737,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1703,72 +1782,6 @@
         <a:xfrm>
           <a:off x="581025" y="1362075"/>
           <a:ext cx="5667375" cy="1228725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="http://avantilipids.com/images/structures/850142s.gif">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2981325" y="1743075"/>
-          <a:ext cx="5715000" cy="971550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1862,6 +1875,72 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="http://avantilipids.com/images/structures/850142s.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2981325" y="1743075"/>
+          <a:ext cx="5715000" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
@@ -1922,7 +2001,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1988,7 +2067,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2054,7 +2133,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2120,7 +2199,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2186,7 +2265,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2252,7 +2331,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing27.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2318,7 +2397,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing28.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2384,7 +2463,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing29.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -2443,7 +2522,73 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="http://avantilipids.com/images/structures/840445s.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="1323975"/>
+          <a:ext cx="5715000" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing30.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2530,73 +2675,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="http://avantilipids.com/images/structures/840445s.gif">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="609600" y="1323975"/>
-          <a:ext cx="5715000" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing31.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -2655,7 +2734,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing32.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2742,7 +2821,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing33.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -2801,7 +2880,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing34.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -2860,7 +2939,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing35.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2947,7 +3026,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing36.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3034,7 +3113,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing37.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3121,7 +3200,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing38.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3208,7 +3287,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing39.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3228,7 +3307,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="18:1 (Δ9-Cis) PC (DOPC)">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C069A2B2-E787-1A46-A088-DD7E887065A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3253,72 +3332,6 @@
         <a:xfrm>
           <a:off x="977900" y="1346200"/>
           <a:ext cx="7620000" cy="1346200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing39.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>11642</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="18:1 TAP (DOTAP)">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{759EE432-536C-7447-914B-C85F5C26B2A3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="774700" y="1308100"/>
-          <a:ext cx="6578600" cy="1370542"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3408,6 +3421,72 @@
 
 <file path=xl/drawings/drawing40.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>11642</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="18:1 TAP (DOTAP)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="774700" y="1308100"/>
+          <a:ext cx="6578600" cy="1370542"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing41.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -3421,7 +3500,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="18:1 Diether PC">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D67DCAD-A523-A744-895C-151BDE97153D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3601,6 +3680,72 @@
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="http://avantilipids.com/images/structures/860399s.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DAB86B4-E059-F04A-9A72-E1B819EB351C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="730250" y="1609725"/>
+          <a:ext cx="6432550" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -3678,7 +3823,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3744,76 +3889,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="http://avantilipids.com/images/structures/860384s.gif">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1009650" y="1590675"/>
-          <a:ext cx="5715000" cy="1085850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3851,9 +3930,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3886,26 +3965,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3938,26 +4000,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4783,6 +4828,341 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:U22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A21:A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>257</v>
+      </c>
+      <c r="C2">
+        <f>((J2*12.01)+(K2*1.01)+(L2*2.02)+(M2*16)+(N2*14.01)+(O2*30.97)+(P2*32.06))</f>
+        <v>299.16999999999996</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <f>((Q2/10000)/B2)</f>
+        <v>2.7811828793774311E-6</v>
+      </c>
+      <c r="F2">
+        <f>((R2/10000)/B2)</f>
+        <v>3.5916809338521393E-6</v>
+      </c>
+      <c r="G2">
+        <f>((S2/10000)/B2)</f>
+        <v>2.8460227237354079E-6</v>
+      </c>
+      <c r="H2">
+        <f>((T2/10000)/B2)</f>
+        <v>3.0891721400778205E-6</v>
+      </c>
+      <c r="I2">
+        <f>((U2/10000)/B2)</f>
+        <v>3.316111595330739E-6</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>12</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f>(((J2*6.6484)+(K2*-3.7409)+(L2*6.674)+(M2*5.805)+(N2*9.36)+(O2*5.13)+(P2*2.8471))/10)</f>
+        <v>7.1476399999999982</v>
+      </c>
+      <c r="R2">
+        <f>(((J2*6.6484)+((K2-D2)*-3.7409)+((L2+D2)*6.674)+(M2*5.805)+(N2*9.36)+(O2*5.13)+(P2*2.8471))/10)</f>
+        <v>9.2306199999999983</v>
+      </c>
+      <c r="S2">
+        <f>((Q2*0.92)+(R2*0.08))</f>
+        <v>7.3142783999999983</v>
+      </c>
+      <c r="T2">
+        <f>((Q2*0.62)+(R2*0.38))</f>
+        <v>7.9391723999999986</v>
+      </c>
+      <c r="U2">
+        <f>((Q2*0.34)+(R2*0.66))</f>
+        <v>8.5224067999999988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>944</v>
+      </c>
+      <c r="C3">
+        <f>((J3*12.01)+(K3*1.01)+(L3*2.02)+(M3*16)+(N3*14.01)+(O3*30.97)+(P3*32.06))</f>
+        <v>480.27</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>((Q3/10000)/B3)</f>
+        <v>3.1376387711864408E-6</v>
+      </c>
+      <c r="F3">
+        <f>((R3/10000)/B3)</f>
+        <v>3.1376387711864408E-6</v>
+      </c>
+      <c r="G3">
+        <f>((S3/10000)/B3)</f>
+        <v>3.1376387711864408E-6</v>
+      </c>
+      <c r="H3">
+        <f>((T3/10000)/B3)</f>
+        <v>3.1376387711864412E-6</v>
+      </c>
+      <c r="I3">
+        <f>((U3/10000)/B3)</f>
+        <v>3.1376387711864412E-6</v>
+      </c>
+      <c r="J3">
+        <v>32</v>
+      </c>
+      <c r="K3">
+        <v>33</v>
+      </c>
+      <c r="L3">
+        <v>31</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f>(((J3*6.6484)+(K3*-3.7409)+(L3*6.674)+(M3*5.805)+(N3*9.36)+(O3*5.13)+(P3*2.8471))/10)</f>
+        <v>29.619310000000002</v>
+      </c>
+      <c r="R3">
+        <f>(((J3*6.6484)+((K3-D3)*-3.7409)+((L3+D3)*6.674)+(M3*5.805)+(N3*9.36)+(O3*5.13)+(P3*2.8471))/10)</f>
+        <v>29.619310000000002</v>
+      </c>
+      <c r="S3">
+        <f>((Q3*0.92)+(R3*0.08))</f>
+        <v>29.619310000000002</v>
+      </c>
+      <c r="T3">
+        <f>((Q3*0.62)+(R3*0.38))</f>
+        <v>29.619310000000006</v>
+      </c>
+      <c r="U3">
+        <f>((Q3*0.34)+(R3*0.66))</f>
+        <v>29.619310000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <f>SUM(B2:B3)</f>
+        <v>1201</v>
+      </c>
+      <c r="C4">
+        <f>SUM(C2:C3)</f>
+        <v>779.43999999999994</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:U4" si="0">SUM(D2:D3)</f>
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f>((Q4/10000)/B4)</f>
+        <v>3.0613613655287264E-6</v>
+      </c>
+      <c r="F4">
+        <f>((R4/10000)/B4)</f>
+        <v>3.2347985012489594E-6</v>
+      </c>
+      <c r="G4">
+        <f>((S4/10000)/B4)</f>
+        <v>3.0752363363863447E-6</v>
+      </c>
+      <c r="H4">
+        <f>((T4/10000)/B4)</f>
+        <v>3.1272674771024149E-6</v>
+      </c>
+      <c r="I4">
+        <f>((U4/10000)/B4)</f>
+        <v>3.1758298751040807E-6</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>36.766950000000001</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>38.849930000000001</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>36.933588399999998</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>37.558482400000003</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>38.141716800000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:U23"/>
   <sheetViews>
@@ -5117,7 +5497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:U23"/>
   <sheetViews>
@@ -5452,7 +5832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:U20"/>
   <sheetViews>
@@ -5787,7 +6167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:U20"/>
   <sheetViews>
@@ -6122,7 +6502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:U20"/>
   <sheetViews>
@@ -6486,7 +6866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:U24"/>
   <sheetViews>
@@ -7128,7 +7508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:U24"/>
   <sheetViews>
@@ -7770,7 +8150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:U25"/>
   <sheetViews>
@@ -8417,7 +8797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:U20"/>
   <sheetViews>
@@ -8739,336 +9119,6 @@
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:U21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>301</v>
-      </c>
-      <c r="C2">
-        <f>((J2*12.01)+(K2*1.01)+(L2*2.02)+(M2*16)+(N2*14.01)+(O2*30.97)+(P2*32.06))</f>
-        <v>411.35</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <f>((Q2/10000)/B2)</f>
-        <v>5.0085980066445188E-6</v>
-      </c>
-      <c r="F2">
-        <f>((R2/10000)/B2)</f>
-        <v>6.7386478405315607E-6</v>
-      </c>
-      <c r="G2">
-        <f>((S2/10000)/B2)</f>
-        <v>5.1470019933554819E-6</v>
-      </c>
-      <c r="H2">
-        <f>((T2/10000)/B2)</f>
-        <v>5.666016943521595E-6</v>
-      </c>
-      <c r="I2">
-        <f>((U2/10000)/B2)</f>
-        <v>6.1504308970099664E-6</v>
-      </c>
-      <c r="J2">
-        <v>11</v>
-      </c>
-      <c r="K2">
-        <v>14</v>
-      </c>
-      <c r="L2">
-        <v>6</v>
-      </c>
-      <c r="M2">
-        <v>13</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <f>(((J2*6.6484)+(K2*-3.7409)+(L2*6.674)+(M2*5.805)+(N2*9.36)+(O2*5.13)+(P2*2.8471))/10)</f>
-        <v>15.075880000000002</v>
-      </c>
-      <c r="R2">
-        <f>(((J2*6.6484)+((K2-D2)*-3.7409)+((L2+D2)*6.674)+(M2*5.805)+(N2*9.36)+(O2*5.13)+(P2*2.8471))/10)</f>
-        <v>20.283329999999999</v>
-      </c>
-      <c r="S2">
-        <f>((Q2*0.92)+(R2*0.08))</f>
-        <v>15.492476000000002</v>
-      </c>
-      <c r="T2">
-        <f>((Q2*0.62)+(R2*0.38))</f>
-        <v>17.054711000000001</v>
-      </c>
-      <c r="U2">
-        <f>((Q2*0.34)+(R2*0.66))</f>
-        <v>18.512796999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>944</v>
-      </c>
-      <c r="C3">
-        <f>((J3*12.01)+(K3*1.01)+(L3*2.02)+(M3*16)+(N3*14.01)+(O3*30.97)+(P3*32.06))</f>
-        <v>448.96</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <f>((Q3/10000)/B3)</f>
-        <v>-2.8250847457627127E-7</v>
-      </c>
-      <c r="F3">
-        <f>((R3/10000)/B3)</f>
-        <v>-2.8250847457627127E-7</v>
-      </c>
-      <c r="G3">
-        <f>((S3/10000)/B3)</f>
-        <v>-2.8250847457627127E-7</v>
-      </c>
-      <c r="H3">
-        <f>((T3/10000)/B3)</f>
-        <v>-2.8250847457627127E-7</v>
-      </c>
-      <c r="I3">
-        <f>((U3/10000)/B3)</f>
-        <v>-2.8250847457627127E-7</v>
-      </c>
-      <c r="J3">
-        <v>32</v>
-      </c>
-      <c r="K3">
-        <v>64</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <f>(((J3*6.6484)+(K3*-3.7409)+(L3*6.674)+(M3*5.805)+(N3*9.36)+(O3*5.13)+(P3*2.8471))/10)</f>
-        <v>-2.6668800000000004</v>
-      </c>
-      <c r="R3">
-        <f>(((J3*6.6484)+((K3-D3)*-3.7409)+((L3+D3)*6.674)+(M3*5.805)+(N3*9.36)+(O3*5.13)+(P3*2.8471))/10)</f>
-        <v>-2.6668800000000004</v>
-      </c>
-      <c r="S3">
-        <f>((Q3*0.92)+(R3*0.08))</f>
-        <v>-2.6668800000000004</v>
-      </c>
-      <c r="T3">
-        <f>((Q3*0.62)+(R3*0.38))</f>
-        <v>-2.6668800000000004</v>
-      </c>
-      <c r="U3">
-        <f>((Q3*0.34)+(R3*0.66))</f>
-        <v>-2.6668800000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <f>SUM(B2:B3)</f>
-        <v>1245</v>
-      </c>
-      <c r="C4">
-        <f>SUM(C2:C3)</f>
-        <v>860.31</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:U4" si="0">SUM(D2:D3)</f>
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <f>((Q4/10000)/B4)</f>
-        <v>9.9670682730923692E-7</v>
-      </c>
-      <c r="F4">
-        <f>((R4/10000)/B4)</f>
-        <v>1.414975903614458E-6</v>
-      </c>
-      <c r="G4">
-        <f>((S4/10000)/B4)</f>
-        <v>1.0301683534136547E-6</v>
-      </c>
-      <c r="H4">
-        <f>((T4/10000)/B4)</f>
-        <v>1.1556490763052208E-6</v>
-      </c>
-      <c r="I4">
-        <f>((U4/10000)/B4)</f>
-        <v>1.2727644176706825E-6</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="0"/>
-        <v>12.409000000000001</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="0"/>
-        <v>17.61645</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="0"/>
-        <v>12.825596000000001</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="0"/>
-        <v>14.387831</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="0"/>
-        <v>15.845916999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -9726,6 +9776,336 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:U21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>301</v>
+      </c>
+      <c r="C2">
+        <f>((J2*12.01)+(K2*1.01)+(L2*2.02)+(M2*16)+(N2*14.01)+(O2*30.97)+(P2*32.06))</f>
+        <v>411.35</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f>((Q2/10000)/B2)</f>
+        <v>5.0085980066445188E-6</v>
+      </c>
+      <c r="F2">
+        <f>((R2/10000)/B2)</f>
+        <v>6.7386478405315607E-6</v>
+      </c>
+      <c r="G2">
+        <f>((S2/10000)/B2)</f>
+        <v>5.1470019933554819E-6</v>
+      </c>
+      <c r="H2">
+        <f>((T2/10000)/B2)</f>
+        <v>5.666016943521595E-6</v>
+      </c>
+      <c r="I2">
+        <f>((U2/10000)/B2)</f>
+        <v>6.1504308970099664E-6</v>
+      </c>
+      <c r="J2">
+        <v>11</v>
+      </c>
+      <c r="K2">
+        <v>14</v>
+      </c>
+      <c r="L2">
+        <v>6</v>
+      </c>
+      <c r="M2">
+        <v>13</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f>(((J2*6.6484)+(K2*-3.7409)+(L2*6.674)+(M2*5.805)+(N2*9.36)+(O2*5.13)+(P2*2.8471))/10)</f>
+        <v>15.075880000000002</v>
+      </c>
+      <c r="R2">
+        <f>(((J2*6.6484)+((K2-D2)*-3.7409)+((L2+D2)*6.674)+(M2*5.805)+(N2*9.36)+(O2*5.13)+(P2*2.8471))/10)</f>
+        <v>20.283329999999999</v>
+      </c>
+      <c r="S2">
+        <f>((Q2*0.92)+(R2*0.08))</f>
+        <v>15.492476000000002</v>
+      </c>
+      <c r="T2">
+        <f>((Q2*0.62)+(R2*0.38))</f>
+        <v>17.054711000000001</v>
+      </c>
+      <c r="U2">
+        <f>((Q2*0.34)+(R2*0.66))</f>
+        <v>18.512796999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>944</v>
+      </c>
+      <c r="C3">
+        <f>((J3*12.01)+(K3*1.01)+(L3*2.02)+(M3*16)+(N3*14.01)+(O3*30.97)+(P3*32.06))</f>
+        <v>448.96</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>((Q3/10000)/B3)</f>
+        <v>-2.8250847457627127E-7</v>
+      </c>
+      <c r="F3">
+        <f>((R3/10000)/B3)</f>
+        <v>-2.8250847457627127E-7</v>
+      </c>
+      <c r="G3">
+        <f>((S3/10000)/B3)</f>
+        <v>-2.8250847457627127E-7</v>
+      </c>
+      <c r="H3">
+        <f>((T3/10000)/B3)</f>
+        <v>-2.8250847457627127E-7</v>
+      </c>
+      <c r="I3">
+        <f>((U3/10000)/B3)</f>
+        <v>-2.8250847457627127E-7</v>
+      </c>
+      <c r="J3">
+        <v>32</v>
+      </c>
+      <c r="K3">
+        <v>64</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f>(((J3*6.6484)+(K3*-3.7409)+(L3*6.674)+(M3*5.805)+(N3*9.36)+(O3*5.13)+(P3*2.8471))/10)</f>
+        <v>-2.6668800000000004</v>
+      </c>
+      <c r="R3">
+        <f>(((J3*6.6484)+((K3-D3)*-3.7409)+((L3+D3)*6.674)+(M3*5.805)+(N3*9.36)+(O3*5.13)+(P3*2.8471))/10)</f>
+        <v>-2.6668800000000004</v>
+      </c>
+      <c r="S3">
+        <f>((Q3*0.92)+(R3*0.08))</f>
+        <v>-2.6668800000000004</v>
+      </c>
+      <c r="T3">
+        <f>((Q3*0.62)+(R3*0.38))</f>
+        <v>-2.6668800000000004</v>
+      </c>
+      <c r="U3">
+        <f>((Q3*0.34)+(R3*0.66))</f>
+        <v>-2.6668800000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <f>SUM(B2:B3)</f>
+        <v>1245</v>
+      </c>
+      <c r="C4">
+        <f>SUM(C2:C3)</f>
+        <v>860.31</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:U4" si="0">SUM(D2:D3)</f>
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <f>((Q4/10000)/B4)</f>
+        <v>9.9670682730923692E-7</v>
+      </c>
+      <c r="F4">
+        <f>((R4/10000)/B4)</f>
+        <v>1.414975903614458E-6</v>
+      </c>
+      <c r="G4">
+        <f>((S4/10000)/B4)</f>
+        <v>1.0301683534136547E-6</v>
+      </c>
+      <c r="H4">
+        <f>((T4/10000)/B4)</f>
+        <v>1.1556490763052208E-6</v>
+      </c>
+      <c r="I4">
+        <f>((U4/10000)/B4)</f>
+        <v>1.2727644176706825E-6</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>12.409000000000001</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>17.61645</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>12.825596000000001</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>14.387831</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>15.845916999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:U21"/>
   <sheetViews>
@@ -10055,7 +10435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:U24"/>
   <sheetViews>
@@ -10390,7 +10770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:U21"/>
   <sheetViews>
@@ -10715,7 +11095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:U22"/>
   <sheetViews>
@@ -11053,7 +11433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:U22"/>
   <sheetViews>
@@ -11552,7 +11932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:U11"/>
   <sheetViews>
@@ -11803,7 +12183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:U4"/>
   <sheetViews>
@@ -12119,7 +12499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:U4"/>
   <sheetViews>
@@ -12434,7 +12814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
@@ -12783,326 +13163,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
-  <dimension ref="A1:U5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>832</v>
-      </c>
-      <c r="C3">
-        <f>((J3*12.01)+(K3*1.01)+(L3*2.02)+(M3*16)+(N3*14.01)+(O3*30.97)+(P3*32.06))</f>
-        <v>787.62</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <f>((Q3/10000)/B3)</f>
-        <v>2.4302812500000002E-6</v>
-      </c>
-      <c r="F3">
-        <f>((R3/10000)/B3)</f>
-        <v>3.6820721153846148E-6</v>
-      </c>
-      <c r="G3">
-        <f>((S3/10000)/B3)</f>
-        <v>2.5304245192307695E-6</v>
-      </c>
-      <c r="H3">
-        <f>((T3/10000)/B3)</f>
-        <v>2.905961778846154E-6</v>
-      </c>
-      <c r="I3">
-        <f>((U3/10000)/B3)</f>
-        <v>3.2564632211538461E-6</v>
-      </c>
-      <c r="J3">
-        <v>27</v>
-      </c>
-      <c r="K3">
-        <v>36</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>23</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <f>(((J3*6.6484)+(K3*-3.7409)+(L3*6.674)+(M3*5.805)+(N3*9.36)+(O3*5.13)+(P3*2.8471))/10)</f>
-        <v>20.219940000000001</v>
-      </c>
-      <c r="R3">
-        <f>(((J3*6.6484)+((K3-D3)*-3.7409)+((L3+D3)*6.674)+(M3*5.805)+(N3*9.36)+(O3*5.13)+(P3*2.8471))/10)</f>
-        <v>30.634839999999997</v>
-      </c>
-      <c r="S3">
-        <f>((Q3*0.92)+(R3*0.08))</f>
-        <v>21.053132000000002</v>
-      </c>
-      <c r="T3">
-        <f>((Q3*0.62)+(R3*0.38))</f>
-        <v>24.177602</v>
-      </c>
-      <c r="U3">
-        <f>((Q3*0.34)+(R3*0.66))</f>
-        <v>27.093774</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>2346</v>
-      </c>
-      <c r="C4">
-        <f>((J4*12.01)+(K4*1.01)+(L4*2.02)+(M4*16)+(N4*14.01)+(O4*30.97)+(P4*32.06))</f>
-        <v>749.65</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <f>((Q4/10000)/B4)</f>
-        <v>-2.8395396419437355E-7</v>
-      </c>
-      <c r="F4">
-        <f>((R4/10000)/B4)</f>
-        <v>-2.8395396419437355E-7</v>
-      </c>
-      <c r="G4">
-        <f>((S4/10000)/B4)</f>
-        <v>-2.8395396419437355E-7</v>
-      </c>
-      <c r="H4">
-        <f>((T4/10000)/B4)</f>
-        <v>-2.8395396419437355E-7</v>
-      </c>
-      <c r="I4">
-        <f>((U4/10000)/B4)</f>
-        <v>-2.8395396419437355E-7</v>
-      </c>
-      <c r="J4">
-        <v>53</v>
-      </c>
-      <c r="K4">
-        <v>112</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <f>(((J4*6.6484)+(K4*-3.7409)+(L4*6.674)+(M4*5.805)+(N4*9.36)+(O4*5.13)+(P4*2.8471))/10)</f>
-        <v>-6.6615600000000033</v>
-      </c>
-      <c r="R4">
-        <f>(((J4*6.6484)+((K4-D4)*-3.7409)+((L4+D4)*6.674)+(M4*5.805)+(N4*9.36)+(O4*5.13)+(P4*2.8471))/10)</f>
-        <v>-6.6615600000000033</v>
-      </c>
-      <c r="S4">
-        <f>((Q4*0.92)+(R4*0.08))</f>
-        <v>-6.6615600000000033</v>
-      </c>
-      <c r="T4">
-        <f>((Q4*0.62)+(R4*0.38))</f>
-        <v>-6.6615600000000033</v>
-      </c>
-      <c r="U4">
-        <f>((Q4*0.34)+(R4*0.66))</f>
-        <v>-6.6615600000000033</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <f>SUM(B3:B4)</f>
-        <v>3178</v>
-      </c>
-      <c r="C5">
-        <f>SUM(C3:C4)</f>
-        <v>1537.27</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ref="D5:U5" si="0">SUM(D3:D4)</f>
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <f>((Q5/10000)/B5)</f>
-        <v>4.2663247325361858E-7</v>
-      </c>
-      <c r="F5">
-        <f>((R5/10000)/B5)</f>
-        <v>7.5435116425424775E-7</v>
-      </c>
-      <c r="G5">
-        <f>((S5/10000)/B5)</f>
-        <v>4.528499685336689E-7</v>
-      </c>
-      <c r="H5">
-        <f>((T5/10000)/B5)</f>
-        <v>5.5116557583385774E-7</v>
-      </c>
-      <c r="I5">
-        <f>((U5/10000)/B5)</f>
-        <v>6.4292680931403373E-7</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>13.558379999999998</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="0"/>
-        <v>23.973279999999995</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="0"/>
-        <v>14.391571999999998</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="0"/>
-        <v>17.516041999999999</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="0"/>
-        <v>20.432213999999995</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U26"/>
@@ -13449,6 +13509,326 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+  <dimension ref="A1:U5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>832</v>
+      </c>
+      <c r="C3">
+        <f>((J3*12.01)+(K3*1.01)+(L3*2.02)+(M3*16)+(N3*14.01)+(O3*30.97)+(P3*32.06))</f>
+        <v>787.62</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <f>((Q3/10000)/B3)</f>
+        <v>2.4302812500000002E-6</v>
+      </c>
+      <c r="F3">
+        <f>((R3/10000)/B3)</f>
+        <v>3.6820721153846148E-6</v>
+      </c>
+      <c r="G3">
+        <f>((S3/10000)/B3)</f>
+        <v>2.5304245192307695E-6</v>
+      </c>
+      <c r="H3">
+        <f>((T3/10000)/B3)</f>
+        <v>2.905961778846154E-6</v>
+      </c>
+      <c r="I3">
+        <f>((U3/10000)/B3)</f>
+        <v>3.2564632211538461E-6</v>
+      </c>
+      <c r="J3">
+        <v>27</v>
+      </c>
+      <c r="K3">
+        <v>36</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>23</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f>(((J3*6.6484)+(K3*-3.7409)+(L3*6.674)+(M3*5.805)+(N3*9.36)+(O3*5.13)+(P3*2.8471))/10)</f>
+        <v>20.219940000000001</v>
+      </c>
+      <c r="R3">
+        <f>(((J3*6.6484)+((K3-D3)*-3.7409)+((L3+D3)*6.674)+(M3*5.805)+(N3*9.36)+(O3*5.13)+(P3*2.8471))/10)</f>
+        <v>30.634839999999997</v>
+      </c>
+      <c r="S3">
+        <f>((Q3*0.92)+(R3*0.08))</f>
+        <v>21.053132000000002</v>
+      </c>
+      <c r="T3">
+        <f>((Q3*0.62)+(R3*0.38))</f>
+        <v>24.177602</v>
+      </c>
+      <c r="U3">
+        <f>((Q3*0.34)+(R3*0.66))</f>
+        <v>27.093774</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2346</v>
+      </c>
+      <c r="C4">
+        <f>((J4*12.01)+(K4*1.01)+(L4*2.02)+(M4*16)+(N4*14.01)+(O4*30.97)+(P4*32.06))</f>
+        <v>749.65</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>((Q4/10000)/B4)</f>
+        <v>-2.8395396419437355E-7</v>
+      </c>
+      <c r="F4">
+        <f>((R4/10000)/B4)</f>
+        <v>-2.8395396419437355E-7</v>
+      </c>
+      <c r="G4">
+        <f>((S4/10000)/B4)</f>
+        <v>-2.8395396419437355E-7</v>
+      </c>
+      <c r="H4">
+        <f>((T4/10000)/B4)</f>
+        <v>-2.8395396419437355E-7</v>
+      </c>
+      <c r="I4">
+        <f>((U4/10000)/B4)</f>
+        <v>-2.8395396419437355E-7</v>
+      </c>
+      <c r="J4">
+        <v>53</v>
+      </c>
+      <c r="K4">
+        <v>112</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f>(((J4*6.6484)+(K4*-3.7409)+(L4*6.674)+(M4*5.805)+(N4*9.36)+(O4*5.13)+(P4*2.8471))/10)</f>
+        <v>-6.6615600000000033</v>
+      </c>
+      <c r="R4">
+        <f>(((J4*6.6484)+((K4-D4)*-3.7409)+((L4+D4)*6.674)+(M4*5.805)+(N4*9.36)+(O4*5.13)+(P4*2.8471))/10)</f>
+        <v>-6.6615600000000033</v>
+      </c>
+      <c r="S4">
+        <f>((Q4*0.92)+(R4*0.08))</f>
+        <v>-6.6615600000000033</v>
+      </c>
+      <c r="T4">
+        <f>((Q4*0.62)+(R4*0.38))</f>
+        <v>-6.6615600000000033</v>
+      </c>
+      <c r="U4">
+        <f>((Q4*0.34)+(R4*0.66))</f>
+        <v>-6.6615600000000033</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <f>SUM(B3:B4)</f>
+        <v>3178</v>
+      </c>
+      <c r="C5">
+        <f>SUM(C3:C4)</f>
+        <v>1537.27</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:U5" si="0">SUM(D3:D4)</f>
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <f>((Q5/10000)/B5)</f>
+        <v>4.2663247325361858E-7</v>
+      </c>
+      <c r="F5">
+        <f>((R5/10000)/B5)</f>
+        <v>7.5435116425424775E-7</v>
+      </c>
+      <c r="G5">
+        <f>((S5/10000)/B5)</f>
+        <v>4.528499685336689E-7</v>
+      </c>
+      <c r="H5">
+        <f>((T5/10000)/B5)</f>
+        <v>5.5116557583385774E-7</v>
+      </c>
+      <c r="I5">
+        <f>((U5/10000)/B5)</f>
+        <v>6.4292680931403373E-7</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>13.558379999999998</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>23.973279999999995</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>14.391571999999998</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>17.516041999999999</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>20.432213999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
@@ -13796,7 +14176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
@@ -14116,7 +14496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
@@ -14464,7 +14844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
@@ -14812,7 +15192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
@@ -15132,7 +15512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
@@ -15452,7 +15832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
@@ -15772,7 +16152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
@@ -16092,7 +16472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
@@ -16408,347 +16788,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDBA569-51E6-A34D-95BA-1EA0E3C84202}">
-  <dimension ref="A1:U22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>319</v>
-      </c>
-      <c r="C2">
-        <f>((J2*12.01)+(K2*1.01)+(L2*2.02)+(M2*16)+(N2*14.01)+(O2*30.97)+(P2*32.06))</f>
-        <v>311.26</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <f>((Q2/10000)/B2)</f>
-        <v>1.8833166144200629E-6</v>
-      </c>
-      <c r="F2">
-        <f>((R2/10000)/B2)</f>
-        <v>1.8833166144200629E-6</v>
-      </c>
-      <c r="G2">
-        <f>((S2/10000)/B2)</f>
-        <v>1.8833166144200629E-6</v>
-      </c>
-      <c r="H2">
-        <f>((T2/10000)/B2)</f>
-        <v>1.8833166144200629E-6</v>
-      </c>
-      <c r="I2">
-        <f>((U2/10000)/B2)</f>
-        <v>1.8833166144200629E-6</v>
-      </c>
-      <c r="J2">
-        <v>10</v>
-      </c>
-      <c r="K2">
-        <v>18</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>8</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <f>(((J2*6.6484)+(K2*-3.7409)+(L2*6.674)+(M2*5.805)+(N2*9.36)+(O2*5.13)+(P2*2.8471))/10)</f>
-        <v>6.0077800000000003</v>
-      </c>
-      <c r="R2">
-        <f>(((J2*6.6484)+((K2-D2)*-3.7409)+((L2+D2)*6.674)+(M2*5.805)+(N2*9.36)+(O2*5.13)+(P2*2.8471))/10)</f>
-        <v>6.0077800000000003</v>
-      </c>
-      <c r="S2">
-        <f>((Q2*0.92)+(R2*0.08))</f>
-        <v>6.0077800000000003</v>
-      </c>
-      <c r="T2">
-        <f>((Q2*0.62)+(R2*0.38))</f>
-        <v>6.0077800000000003</v>
-      </c>
-      <c r="U2">
-        <f>((Q2*0.34)+(R2*0.66))</f>
-        <v>6.0077800000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <f>1294-B2</f>
-        <v>975</v>
-      </c>
-      <c r="C3">
-        <f>((J3*12.01)+(K3*1.01)+(L3*2.02)+(M3*16)+(N3*14.01)+(O3*30.97)+(P3*32.06))</f>
-        <v>475</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <f>((Q3/10000)/B3)</f>
-        <v>-2.1388512820512827E-7</v>
-      </c>
-      <c r="F3">
-        <f>((R3/10000)/B3)</f>
-        <v>-2.1388512820512827E-7</v>
-      </c>
-      <c r="G3">
-        <f>((S3/10000)/B3)</f>
-        <v>-2.1388512820512827E-7</v>
-      </c>
-      <c r="H3">
-        <f>((T3/10000)/B3)</f>
-        <v>-2.1388512820512827E-7</v>
-      </c>
-      <c r="I3">
-        <f>((U3/10000)/B3)</f>
-        <v>-2.1388512820512827E-7</v>
-      </c>
-      <c r="J3">
-        <v>34</v>
-      </c>
-      <c r="K3">
-        <v>66</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <f>(((J3*6.6484)+(K3*-3.7409)+(L3*6.674)+(M3*5.805)+(N3*9.36)+(O3*5.13)+(P3*2.8471))/10)</f>
-        <v>-2.0853800000000007</v>
-      </c>
-      <c r="R3">
-        <f>(((J3*6.6484)+((K3-D3)*-3.7409)+((L3+D3)*6.674)+(M3*5.805)+(N3*9.36)+(O3*5.13)+(P3*2.8471))/10)</f>
-        <v>-2.0853800000000007</v>
-      </c>
-      <c r="S3">
-        <f>((Q3*0.92)+(R3*0.08))</f>
-        <v>-2.0853800000000007</v>
-      </c>
-      <c r="T3">
-        <f>((Q3*0.62)+(R3*0.38))</f>
-        <v>-2.0853800000000007</v>
-      </c>
-      <c r="U3">
-        <f>((Q3*0.34)+(R3*0.66))</f>
-        <v>-2.0853800000000007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <f>SUM(B2:B3)</f>
-        <v>1294</v>
-      </c>
-      <c r="C4">
-        <f>SUM(C2:C3)</f>
-        <v>786.26</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:U4" si="0">SUM(D2:D3)</f>
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <f>((Q4/10000)/B4)</f>
-        <v>3.0312210200927356E-7</v>
-      </c>
-      <c r="F4">
-        <f>((R4/10000)/B4)</f>
-        <v>3.0312210200927356E-7</v>
-      </c>
-      <c r="G4">
-        <f>((S4/10000)/B4)</f>
-        <v>3.0312210200927356E-7</v>
-      </c>
-      <c r="H4">
-        <f>((T4/10000)/B4)</f>
-        <v>3.0312210200927356E-7</v>
-      </c>
-      <c r="I4">
-        <f>((U4/10000)/B4)</f>
-        <v>3.0312210200927356E-7</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="0"/>
-        <v>3.9223999999999997</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="0"/>
-        <v>3.9223999999999997</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="0"/>
-        <v>3.9223999999999997</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="0"/>
-        <v>3.9223999999999997</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="0"/>
-        <v>3.9223999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17088,6 +17127,347 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDBA569-51E6-A34D-95BA-1EA0E3C84202}">
+  <dimension ref="A1:U22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>319</v>
+      </c>
+      <c r="C2">
+        <f>((J2*12.01)+(K2*1.01)+(L2*2.02)+(M2*16)+(N2*14.01)+(O2*30.97)+(P2*32.06))</f>
+        <v>311.26</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>((Q2/10000)/B2)</f>
+        <v>1.8833166144200629E-6</v>
+      </c>
+      <c r="F2">
+        <f>((R2/10000)/B2)</f>
+        <v>1.8833166144200629E-6</v>
+      </c>
+      <c r="G2">
+        <f>((S2/10000)/B2)</f>
+        <v>1.8833166144200629E-6</v>
+      </c>
+      <c r="H2">
+        <f>((T2/10000)/B2)</f>
+        <v>1.8833166144200629E-6</v>
+      </c>
+      <c r="I2">
+        <f>((U2/10000)/B2)</f>
+        <v>1.8833166144200629E-6</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>18</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>8</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f>(((J2*6.6484)+(K2*-3.7409)+(L2*6.674)+(M2*5.805)+(N2*9.36)+(O2*5.13)+(P2*2.8471))/10)</f>
+        <v>6.0077800000000003</v>
+      </c>
+      <c r="R2">
+        <f>(((J2*6.6484)+((K2-D2)*-3.7409)+((L2+D2)*6.674)+(M2*5.805)+(N2*9.36)+(O2*5.13)+(P2*2.8471))/10)</f>
+        <v>6.0077800000000003</v>
+      </c>
+      <c r="S2">
+        <f>((Q2*0.92)+(R2*0.08))</f>
+        <v>6.0077800000000003</v>
+      </c>
+      <c r="T2">
+        <f>((Q2*0.62)+(R2*0.38))</f>
+        <v>6.0077800000000003</v>
+      </c>
+      <c r="U2">
+        <f>((Q2*0.34)+(R2*0.66))</f>
+        <v>6.0077800000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>1294-B2</f>
+        <v>975</v>
+      </c>
+      <c r="C3">
+        <f>((J3*12.01)+(K3*1.01)+(L3*2.02)+(M3*16)+(N3*14.01)+(O3*30.97)+(P3*32.06))</f>
+        <v>475</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>((Q3/10000)/B3)</f>
+        <v>-2.1388512820512827E-7</v>
+      </c>
+      <c r="F3">
+        <f>((R3/10000)/B3)</f>
+        <v>-2.1388512820512827E-7</v>
+      </c>
+      <c r="G3">
+        <f>((S3/10000)/B3)</f>
+        <v>-2.1388512820512827E-7</v>
+      </c>
+      <c r="H3">
+        <f>((T3/10000)/B3)</f>
+        <v>-2.1388512820512827E-7</v>
+      </c>
+      <c r="I3">
+        <f>((U3/10000)/B3)</f>
+        <v>-2.1388512820512827E-7</v>
+      </c>
+      <c r="J3">
+        <v>34</v>
+      </c>
+      <c r="K3">
+        <v>66</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f>(((J3*6.6484)+(K3*-3.7409)+(L3*6.674)+(M3*5.805)+(N3*9.36)+(O3*5.13)+(P3*2.8471))/10)</f>
+        <v>-2.0853800000000007</v>
+      </c>
+      <c r="R3">
+        <f>(((J3*6.6484)+((K3-D3)*-3.7409)+((L3+D3)*6.674)+(M3*5.805)+(N3*9.36)+(O3*5.13)+(P3*2.8471))/10)</f>
+        <v>-2.0853800000000007</v>
+      </c>
+      <c r="S3">
+        <f>((Q3*0.92)+(R3*0.08))</f>
+        <v>-2.0853800000000007</v>
+      </c>
+      <c r="T3">
+        <f>((Q3*0.62)+(R3*0.38))</f>
+        <v>-2.0853800000000007</v>
+      </c>
+      <c r="U3">
+        <f>((Q3*0.34)+(R3*0.66))</f>
+        <v>-2.0853800000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <f>SUM(B2:B3)</f>
+        <v>1294</v>
+      </c>
+      <c r="C4">
+        <f>SUM(C2:C3)</f>
+        <v>786.26</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:U4" si="0">SUM(D2:D3)</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>((Q4/10000)/B4)</f>
+        <v>3.0312210200927356E-7</v>
+      </c>
+      <c r="F4">
+        <f>((R4/10000)/B4)</f>
+        <v>3.0312210200927356E-7</v>
+      </c>
+      <c r="G4">
+        <f>((S4/10000)/B4)</f>
+        <v>3.0312210200927356E-7</v>
+      </c>
+      <c r="H4">
+        <f>((T4/10000)/B4)</f>
+        <v>3.0312210200927356E-7</v>
+      </c>
+      <c r="I4">
+        <f>((U4/10000)/B4)</f>
+        <v>3.0312210200927356E-7</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>3.9223999999999997</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>3.9223999999999997</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>3.9223999999999997</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>3.9223999999999997</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>3.9223999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7179B6AA-516D-3649-AC08-549548CA6D29}">
   <dimension ref="A1:U20"/>
   <sheetViews>
@@ -17418,11 +17798,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F173495-B41F-FD43-890A-067F54EEADA2}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -17686,51 +18066,51 @@
         <v>9.1457489878542556E-8</v>
       </c>
       <c r="J4">
-        <f>SUM(J2:J3)</f>
+        <f t="shared" ref="J4:U4" si="0">SUM(J2:J3)</f>
         <v>44</v>
       </c>
       <c r="K4">
-        <f>SUM(K2:K3)</f>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="L4">
-        <f>SUM(L2:L3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>SUM(M2:M3)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="N4">
-        <f>SUM(N2:N3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O4">
-        <f>SUM(O2:O3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P4">
-        <f>SUM(P2:P3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>SUM(Q2:Q3)</f>
+        <f t="shared" si="0"/>
         <v>1.2650400000000004</v>
       </c>
       <c r="R4">
-        <f>SUM(R2:R3)</f>
+        <f t="shared" si="0"/>
         <v>1.2650400000000004</v>
       </c>
       <c r="S4">
-        <f>SUM(S2:S3)</f>
+        <f t="shared" si="0"/>
         <v>1.2650400000000004</v>
       </c>
       <c r="T4">
-        <f>SUM(T2:T3)</f>
+        <f t="shared" si="0"/>
         <v>1.2650400000000004</v>
       </c>
       <c r="U4">
-        <f>SUM(U2:U3)</f>
+        <f t="shared" si="0"/>
         <v>1.2650400000000008</v>
       </c>
     </row>
@@ -18421,6 +18801,336 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EECAE9F-4E5A-DE4F-8757-538E68E887A1}">
+  <dimension ref="A1:U20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>319</v>
+      </c>
+      <c r="C2">
+        <f>((J2*12.01)+(K2*1.01)+(L2*2.02)+(M2*16)+(N2*14.01)+(O2*30.97)+(P2*32.06))</f>
+        <v>324.39</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>((Q2/10000)/B2)</f>
+        <v>6.127633228840124E-6</v>
+      </c>
+      <c r="F2">
+        <f>((R2/10000)/B2)</f>
+        <v>6.127633228840124E-6</v>
+      </c>
+      <c r="G2">
+        <f>((S2/10000)/B2)</f>
+        <v>6.127633228840124E-6</v>
+      </c>
+      <c r="H2">
+        <f>((T2/10000)/B2)</f>
+        <v>6.127633228840124E-6</v>
+      </c>
+      <c r="I2">
+        <f>((U2/10000)/B2)</f>
+        <v>6.127633228840124E-6</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>13</v>
+      </c>
+      <c r="M2">
+        <v>8</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f>(((J2*6.6484)+(K2*-3.7409)+(L2*6.674)+(M2*5.805)+(N2*9.36)+(O2*5.13)+(P2*2.8471))/10)</f>
+        <v>19.547149999999998</v>
+      </c>
+      <c r="R2">
+        <f>(((J2*6.6484)+((K2-D2)*-3.7409)+((L2+D2)*6.674)+(M2*5.805)+(N2*9.36)+(O2*5.13)+(P2*2.8471))/10)</f>
+        <v>19.547149999999998</v>
+      </c>
+      <c r="S2">
+        <f>((Q2*0.92)+(R2*0.08))</f>
+        <v>19.547149999999998</v>
+      </c>
+      <c r="T2">
+        <f>((Q2*0.62)+(R2*0.38))</f>
+        <v>19.547149999999998</v>
+      </c>
+      <c r="U2">
+        <f>((Q2*0.34)+(R2*0.66))</f>
+        <v>19.547149999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>944</v>
+      </c>
+      <c r="C3">
+        <f>((J3*12.01)+(K3*1.01)+(L3*2.02)+(M3*16)+(N3*14.01)+(O3*30.97)+(P3*32.06))</f>
+        <v>513.6</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>((Q3/10000)/B3)</f>
+        <v>6.7784406779661023E-6</v>
+      </c>
+      <c r="F3">
+        <f>((R3/10000)/B3)</f>
+        <v>6.7784406779661023E-6</v>
+      </c>
+      <c r="G3">
+        <f>((S3/10000)/B3)</f>
+        <v>6.7784406779661023E-6</v>
+      </c>
+      <c r="H3">
+        <f>((T3/10000)/B3)</f>
+        <v>6.7784406779661023E-6</v>
+      </c>
+      <c r="I3">
+        <f>((U3/10000)/B3)</f>
+        <v>6.7784406779661032E-6</v>
+      </c>
+      <c r="J3">
+        <v>32</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>64</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f>(((J3*6.6484)+(K3*-3.7409)+(L3*6.674)+(M3*5.805)+(N3*9.36)+(O3*5.13)+(P3*2.8471))/10)</f>
+        <v>63.988480000000003</v>
+      </c>
+      <c r="R3">
+        <f>(((J3*6.6484)+((K3-D3)*-3.7409)+((L3+D3)*6.674)+(M3*5.805)+(N3*9.36)+(O3*5.13)+(P3*2.8471))/10)</f>
+        <v>63.988480000000003</v>
+      </c>
+      <c r="S3">
+        <f>((Q3*0.92)+(R3*0.08))</f>
+        <v>63.988480000000003</v>
+      </c>
+      <c r="T3">
+        <f>((Q3*0.62)+(R3*0.38))</f>
+        <v>63.988480000000003</v>
+      </c>
+      <c r="U3">
+        <f>((Q3*0.34)+(R3*0.66))</f>
+        <v>63.98848000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <f>SUM(B2:B3)</f>
+        <v>1263</v>
+      </c>
+      <c r="C4">
+        <f>SUM(C2:C3)</f>
+        <v>837.99</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:U4" si="0">SUM(D2:D3)</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>((Q4/10000)/B4)</f>
+        <v>6.6140641330166266E-6</v>
+      </c>
+      <c r="F4">
+        <f>((R4/10000)/B4)</f>
+        <v>6.6140641330166266E-6</v>
+      </c>
+      <c r="G4">
+        <f>((S4/10000)/B4)</f>
+        <v>6.6140641330166266E-6</v>
+      </c>
+      <c r="H4">
+        <f>((T4/10000)/B4)</f>
+        <v>6.6140641330166266E-6</v>
+      </c>
+      <c r="I4">
+        <f>((U4/10000)/B4)</f>
+        <v>6.6140641330166282E-6</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>83.535629999999998</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>83.535629999999998</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>83.535629999999998</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>83.535629999999998</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>83.535630000000012</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:U20"/>
   <sheetViews>
@@ -18750,7 +19460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:U22"/>
   <sheetViews>
@@ -19083,339 +19793,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:U22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A21:A22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>257</v>
-      </c>
-      <c r="C2">
-        <f>((J2*12.01)+(K2*1.01)+(L2*2.02)+(M2*16)+(N2*14.01)+(O2*30.97)+(P2*32.06))</f>
-        <v>299.16999999999996</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <f>((Q2/10000)/B2)</f>
-        <v>2.7811828793774311E-6</v>
-      </c>
-      <c r="F2">
-        <f>((R2/10000)/B2)</f>
-        <v>3.5916809338521393E-6</v>
-      </c>
-      <c r="G2">
-        <f>((S2/10000)/B2)</f>
-        <v>2.8460227237354079E-6</v>
-      </c>
-      <c r="H2">
-        <f>((T2/10000)/B2)</f>
-        <v>3.0891721400778205E-6</v>
-      </c>
-      <c r="I2">
-        <f>((U2/10000)/B2)</f>
-        <v>3.316111595330739E-6</v>
-      </c>
-      <c r="J2">
-        <v>8</v>
-      </c>
-      <c r="K2">
-        <v>12</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>10</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <f>(((J2*6.6484)+(K2*-3.7409)+(L2*6.674)+(M2*5.805)+(N2*9.36)+(O2*5.13)+(P2*2.8471))/10)</f>
-        <v>7.1476399999999982</v>
-      </c>
-      <c r="R2">
-        <f>(((J2*6.6484)+((K2-D2)*-3.7409)+((L2+D2)*6.674)+(M2*5.805)+(N2*9.36)+(O2*5.13)+(P2*2.8471))/10)</f>
-        <v>9.2306199999999983</v>
-      </c>
-      <c r="S2">
-        <f>((Q2*0.92)+(R2*0.08))</f>
-        <v>7.3142783999999983</v>
-      </c>
-      <c r="T2">
-        <f>((Q2*0.62)+(R2*0.38))</f>
-        <v>7.9391723999999986</v>
-      </c>
-      <c r="U2">
-        <f>((Q2*0.34)+(R2*0.66))</f>
-        <v>8.5224067999999988</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>944</v>
-      </c>
-      <c r="C3">
-        <f>((J3*12.01)+(K3*1.01)+(L3*2.02)+(M3*16)+(N3*14.01)+(O3*30.97)+(P3*32.06))</f>
-        <v>480.27</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <f>((Q3/10000)/B3)</f>
-        <v>3.1376387711864408E-6</v>
-      </c>
-      <c r="F3">
-        <f>((R3/10000)/B3)</f>
-        <v>3.1376387711864408E-6</v>
-      </c>
-      <c r="G3">
-        <f>((S3/10000)/B3)</f>
-        <v>3.1376387711864408E-6</v>
-      </c>
-      <c r="H3">
-        <f>((T3/10000)/B3)</f>
-        <v>3.1376387711864412E-6</v>
-      </c>
-      <c r="I3">
-        <f>((U3/10000)/B3)</f>
-        <v>3.1376387711864412E-6</v>
-      </c>
-      <c r="J3">
-        <v>32</v>
-      </c>
-      <c r="K3">
-        <v>33</v>
-      </c>
-      <c r="L3">
-        <v>31</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <f>(((J3*6.6484)+(K3*-3.7409)+(L3*6.674)+(M3*5.805)+(N3*9.36)+(O3*5.13)+(P3*2.8471))/10)</f>
-        <v>29.619310000000002</v>
-      </c>
-      <c r="R3">
-        <f>(((J3*6.6484)+((K3-D3)*-3.7409)+((L3+D3)*6.674)+(M3*5.805)+(N3*9.36)+(O3*5.13)+(P3*2.8471))/10)</f>
-        <v>29.619310000000002</v>
-      </c>
-      <c r="S3">
-        <f>((Q3*0.92)+(R3*0.08))</f>
-        <v>29.619310000000002</v>
-      </c>
-      <c r="T3">
-        <f>((Q3*0.62)+(R3*0.38))</f>
-        <v>29.619310000000006</v>
-      </c>
-      <c r="U3">
-        <f>((Q3*0.34)+(R3*0.66))</f>
-        <v>29.619310000000006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <f>SUM(B2:B3)</f>
-        <v>1201</v>
-      </c>
-      <c r="C4">
-        <f>SUM(C2:C3)</f>
-        <v>779.43999999999994</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:U4" si="0">SUM(D2:D3)</f>
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <f>((Q4/10000)/B4)</f>
-        <v>3.0613613655287264E-6</v>
-      </c>
-      <c r="F4">
-        <f>((R4/10000)/B4)</f>
-        <v>3.2347985012489594E-6</v>
-      </c>
-      <c r="G4">
-        <f>((S4/10000)/B4)</f>
-        <v>3.0752363363863447E-6</v>
-      </c>
-      <c r="H4">
-        <f>((T4/10000)/B4)</f>
-        <v>3.1272674771024149E-6</v>
-      </c>
-      <c r="I4">
-        <f>((U4/10000)/B4)</f>
-        <v>3.1758298751040807E-6</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="0"/>
-        <v>36.766950000000001</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="0"/>
-        <v>38.849930000000001</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="0"/>
-        <v>36.933588399999998</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="0"/>
-        <v>37.558482400000003</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="0"/>
-        <v>38.141716800000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>